--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -336,32 +336,32 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,51 +705,51 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>16</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -769,12 +769,12 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -872,7 +872,7 @@
       <c r="D18" s="4">
         <v>10</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -939,12 +939,12 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
